--- a/inst/tests/test_import.xlsx
+++ b/inst/tests/test_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18060" windowHeight="8325" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18060" windowHeight="8325" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="state.x77" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="oneColumn" sheetId="5" r:id="rId5"/>
     <sheet name="ben" sheetId="6" r:id="rId6"/>
     <sheet name="formulas" sheetId="7" r:id="rId7"/>
+    <sheet name="NAs" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Price1" comment="Test a named range -- 1">deletedFields!$A$13:$C$24</definedName>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
   <si>
     <t>Population</t>
   </si>
@@ -2344,7 +2345,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2697,7 +2698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -4011,4 +4012,292 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>39814</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-1.123</v>
+      </c>
+      <c r="F2" s="3">
+        <v>39814.042372685188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>39845</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1.123</v>
+      </c>
+      <c r="F3" s="4">
+        <v>39845.084745370368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>39873</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>10^1.5</f>
+        <v>31.622776601683803</v>
+      </c>
+      <c r="F4" s="3">
+        <v>39873.127117939817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>39904</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>SQRT(2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="F5" s="4">
+        <v>39904.169490567132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>39934</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>LOG(2)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="F6" s="3">
+        <v>39934.211863194447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>10^210+1.12</f>
+        <v>9.9999999999999993E+209</v>
+      </c>
+      <c r="F7" s="4">
+        <v>39965.254235821762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>39995</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="3">
+        <v>39995.296608449076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>40026</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="e">
+        <f>-1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="4">
+        <v>40026.338981076391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>40057</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>E2+1</f>
+        <v>-0.123</v>
+      </c>
+      <c r="F10" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>40087</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>E10+1</f>
+        <v>0.877</v>
+      </c>
+      <c r="F11" s="4">
+        <v>40087.423726331021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>40118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="3">
+        <v>40118.466098958335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>40148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="e">
+        <f>E12+1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="4">
+        <v>40148.50847158565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/tests/test_import.xlsx
+++ b/inst/tests/test_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18060" windowHeight="8325" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18060" windowHeight="8325" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="state.x77" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="ben" sheetId="6" r:id="rId6"/>
     <sheet name="formulas" sheetId="7" r:id="rId7"/>
     <sheet name="NAs" sheetId="8" r:id="rId8"/>
+    <sheet name="all" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Price1" comment="Test a named range -- 1">deletedFields!$A$13:$C$24</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="123">
   <si>
     <t>Population</t>
   </si>
@@ -374,17 +375,72 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>rnorm</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm:ss;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +516,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -481,7 +552,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -507,12 +578,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -556,6 +636,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3957,7 +4041,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4018,7 +4102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -4300,4 +4384,335 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="C3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>36161</v>
+      </c>
+      <c r="G4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>3121.5468319920351</v>
+      </c>
+      <c r="J4" s="24">
+        <v>40853</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="23">
+        <v>2</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>36526</v>
+      </c>
+      <c r="G5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5">
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="I5">
+        <v>-1624.4125246305759</v>
+      </c>
+      <c r="J5" s="24">
+        <v>40853.041666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="23">
+        <v>3</v>
+      </c>
+      <c r="E6" s="23">
+        <v>2002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>36892</v>
+      </c>
+      <c r="G6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6">
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="I6">
+        <v>-3037.6986982328153</v>
+      </c>
+      <c r="J6" s="24">
+        <v>40853.083333333336</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="23">
+        <v>4</v>
+      </c>
+      <c r="E7" s="23">
+        <v>2003</v>
+      </c>
+      <c r="F7" s="1">
+        <v>37257</v>
+      </c>
+      <c r="G7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7">
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="I7">
+        <v>4421.4613537295108</v>
+      </c>
+      <c r="J7" s="24">
+        <v>40853.125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="23">
+        <v>5</v>
+      </c>
+      <c r="E8" s="23">
+        <v>2004</v>
+      </c>
+      <c r="F8" s="1">
+        <v>37622</v>
+      </c>
+      <c r="G8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8">
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="I8">
+        <v>5907.2342279766544</v>
+      </c>
+      <c r="J8" s="24">
+        <v>40853.166666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="23">
+        <v>6</v>
+      </c>
+      <c r="E9" s="23">
+        <v>2005</v>
+      </c>
+      <c r="F9" s="1">
+        <v>37987</v>
+      </c>
+      <c r="G9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9">
+        <v>1.791759469228055</v>
+      </c>
+      <c r="I9">
+        <v>14338.644991521463</v>
+      </c>
+      <c r="J9" s="24">
+        <v>40853.208333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="23">
+        <v>7</v>
+      </c>
+      <c r="E10" s="23">
+        <v>2006</v>
+      </c>
+      <c r="F10" s="1">
+        <v>38353</v>
+      </c>
+      <c r="G10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10">
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="I10">
+        <v>12782.030353787637</v>
+      </c>
+      <c r="J10" s="24">
+        <v>40853.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="23">
+        <v>8</v>
+      </c>
+      <c r="E11" s="23">
+        <v>2007</v>
+      </c>
+      <c r="F11" s="1">
+        <v>38718</v>
+      </c>
+      <c r="G11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11">
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="I11">
+        <v>-11000.620182831051</v>
+      </c>
+      <c r="J11" s="24">
+        <v>40853.291666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="23">
+        <v>9</v>
+      </c>
+      <c r="E12" s="23">
+        <v>2008</v>
+      </c>
+      <c r="F12" s="1">
+        <v>39083</v>
+      </c>
+      <c r="G12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12">
+        <v>2.1972245773362196</v>
+      </c>
+      <c r="I12">
+        <v>-10842.879724285254</v>
+      </c>
+      <c r="J12" s="24">
+        <v>40853.333333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="23">
+        <v>10</v>
+      </c>
+      <c r="E13" s="23">
+        <v>2009</v>
+      </c>
+      <c r="F13" s="1">
+        <v>39448</v>
+      </c>
+      <c r="G13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13">
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="I13">
+        <v>16340.029557637967</v>
+      </c>
+      <c r="J13" s="24">
+        <v>40853.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>